--- a/data/DbData.xlsx
+++ b/data/DbData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JyothsnaSirasanameti\Desktop\Jyo\IgniteIQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JyothsnaSirasanameti\projects\learning\ishinerest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F38380-848D-4FF5-8A3B-82AEC1407BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF884E90-F7F2-44CB-A339-0BA4941C1328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>Subjects</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Maths</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>QUESTION_TYPE</t>
   </si>
   <si>
@@ -772,6 +769,15 @@
       </rPr>
       <t xml:space="preserve"> (just like water - H₂O).</t>
     </r>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Algebra - Simultaneous Equations</t>
+  </si>
+  <si>
+    <t>Algebra - Solving Equations</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825E26E-0BA0-44AA-98F4-447D2D41FC2B}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1131,40 +1137,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1172,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1207,28 +1213,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1242,28 +1248,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1277,28 +1283,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1312,10 +1318,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1333,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1347,28 +1353,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1382,28 +1388,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1417,28 +1423,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1452,28 +1458,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1487,28 +1493,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1522,28 +1528,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1559,16 +1565,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.62890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1592,10 +1599,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1101</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1603,10 +1610,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1102</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1614,10 +1621,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1103</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1625,73 +1632,96 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>1104</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>1</v>
+        <v>110401</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>2</v>
+        <v>110402</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>3</v>
+        <v>110403</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>4</v>
+        <v>110404</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1104</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>110419</v>
+      </c>
+      <c r="B15">
+        <v>1101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>110420</v>
+      </c>
+      <c r="B16">
+        <v>1101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>